--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2419277.754997672</v>
+        <v>2527428.847911965</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9229309.456459936</v>
+        <v>9235352.467047192</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>14.20741661124831</v>
       </c>
       <c r="X2" t="n">
-        <v>61.20214510269164</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>24.6422991554357</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>137.4745020934533</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>314.3638821833709</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>163.4436158013537</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>41.40638822597179</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>85.98761756444877</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>235.8298366600191</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>80.52402110376468</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>106.0900968852907</v>
+        <v>69.71950520674542</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>9.146142788180311</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>26.05480806223734</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>219.4517041866526</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>94.30373791808233</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560542</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>13.74238375877751</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>53.82913822150018</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>245.879692121443</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3.006892987835467</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>221.6488161050621</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>45.66054613217701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569552</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>94.56071137692717</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1599.080600298115</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C2" t="n">
-        <v>1230.118083357703</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>2085.661700400211</v>
       </c>
       <c r="X2" t="n">
-        <v>2375.819772338048</v>
+        <v>2085.661700400211</v>
       </c>
       <c r="Y2" t="n">
-        <v>1985.680440362237</v>
+        <v>2085.661700400211</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>846.306131908167</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1695.473263708972</v>
+        <v>944.5879060637666</v>
       </c>
       <c r="C4" t="n">
-        <v>1526.537080781065</v>
+        <v>775.6517231358597</v>
       </c>
       <c r="D4" t="n">
-        <v>1526.537080781065</v>
+        <v>625.5350837235239</v>
       </c>
       <c r="E4" t="n">
-        <v>1378.623987198672</v>
+        <v>477.6219901411308</v>
       </c>
       <c r="F4" t="n">
-        <v>1231.734039700762</v>
+        <v>330.7320426432204</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2236.777441110473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2236.777441110473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>2236.777441110473</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>2236.777441110473</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>2097.914307682742</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="Y4" t="n">
-        <v>1877.121728539212</v>
+        <v>1126.236370894006</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.923604942953</v>
+        <v>1467.671350819693</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.923604942953</v>
+        <v>1467.671350819693</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.923604942953</v>
+        <v>1109.405652212942</v>
       </c>
       <c r="E5" t="n">
-        <v>1154.923604942953</v>
+        <v>1109.405652212942</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>698.4197474233347</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>282.7149971476235</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,7 +4585,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1545.062936918765</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X5" t="n">
-        <v>1545.062936918765</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.923604942953</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.189556406156</v>
+        <v>706.8033708781531</v>
       </c>
       <c r="C7" t="n">
-        <v>348.2533734782492</v>
+        <v>706.8033708781531</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>556.6867314658174</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>556.6867314658174</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>409.796783967907</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>241.8103192761856</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>93.07142113969178</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4753,22 +4755,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1027.399305586647</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V7" t="n">
-        <v>1027.399305586647</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W7" t="n">
-        <v>737.9821355496862</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="X7" t="n">
-        <v>737.9821355496862</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.189556406156</v>
+        <v>888.4518357083929</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.898819086399</v>
+        <v>1081.071510755571</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>712.1089938151592</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>712.1089938151592</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1990.637991126332</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1600.49865915052</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270.9995076393842</v>
+        <v>121.6705292010793</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>452.6479724696239</v>
+        <v>342.4631083446094</v>
       </c>
       <c r="Y10" t="n">
-        <v>452.6479724696239</v>
+        <v>121.6705292010793</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,7 +5059,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5066,13 +5068,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468473</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597628</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597628</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597628</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597628</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746428</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>103.0551911168409</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616111</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2824.769373306004</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>2655.833190378097</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>2505.716550965761</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>2479.398563024107</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>2479.398563024107</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>2479.398563024107</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>3999.301626420638</v>
+        <v>1755.792692443183</v>
       </c>
       <c r="V16" t="n">
-        <v>3744.617138214751</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W16" t="n">
-        <v>3455.199968177791</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>3227.210417279774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>3006.417838136244</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6800663848338</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560544</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>633.992644467967</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732381</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>189.0729639753278</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5731,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5753,40 +5755,40 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5835,16 +5837,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2977.325134535464</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>2808.388951607557</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D22" t="n">
-        <v>2794.50775589162</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E22" t="n">
-        <v>2646.594662309227</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309227</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>230.2762332904625</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.857387650099</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3897.172899444212</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3607.755729407251</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3379.766178509234</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3158.973599365704</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2354.274259167293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6223,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6236,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4221.331149328841</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,13 +6545,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2655.833190378096</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>2652.795924733818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>2504.882831151424</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F31" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6785,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.185983673937</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>4180.29829063852</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3890.88112060156</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3662.891569703542</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.098990560012</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,10 +6970,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -6980,7 +6982,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452613</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277359</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,22 +7426,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7658,19 +7660,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3122.226968733741</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3122.226968733741</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2972.110329321406</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2824.197235739012</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376188</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218386</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.6867318663</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296624</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4115.110757018136</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3860.426268812249</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3571.009098775288</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3343.019547877271</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3122.226968733741</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>129.7511347056862</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>255.5240487471574</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>231.2582814363241</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.11969353038519</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.30478226780068</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>120.3791545843318</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>66.73277020259155</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>71.22040037418651</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23941,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>134.8730892594348</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>86.46557462472367</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.64330621514796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>145.6085800303769</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>30.48882721876586</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>100.7734165143922</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>43.26526345294994</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>50.86033664600407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>807225.109232812</v>
+        <v>813761.2294839899</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128914</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>793677.3183128919</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448203</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597552</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597553</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597549</v>
@@ -26353,7 +26355,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
-      <c r="D4" t="n">
-        <v>86694.40323307095</v>
-      </c>
       <c r="E4" t="n">
-        <v>7507.368461719596</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719619</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719619</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719642</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719636</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719633</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719633</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719716</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719717</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.36846171979</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704496.0479176883</v>
+        <v>-704496.0479176885</v>
       </c>
       <c r="C6" t="n">
-        <v>410255.7356582313</v>
+        <v>410255.735658231</v>
       </c>
       <c r="D6" t="n">
-        <v>249051.8874100172</v>
+        <v>410255.7356582311</v>
       </c>
       <c r="E6" t="n">
-        <v>191496.254666773</v>
+        <v>9423.27484958175</v>
       </c>
       <c r="F6" t="n">
-        <v>516908.7164741282</v>
+        <v>516908.716474128</v>
       </c>
       <c r="G6" t="n">
-        <v>516908.7164741284</v>
+        <v>516908.7164741278</v>
       </c>
       <c r="H6" t="n">
-        <v>516908.7164741281</v>
+        <v>516908.716474128</v>
       </c>
       <c r="I6" t="n">
         <v>516908.7164741281</v>
@@ -26546,22 +26548,22 @@
         <v>349303.5386641455</v>
       </c>
       <c r="K6" t="n">
-        <v>516908.7164741282</v>
+        <v>516908.7164741279</v>
       </c>
       <c r="L6" t="n">
-        <v>468614.7464659374</v>
+        <v>516908.716474128</v>
       </c>
       <c r="M6" t="n">
-        <v>431853.688538616</v>
+        <v>384301.4227452018</v>
       </c>
       <c r="N6" t="n">
-        <v>516908.7164741281</v>
+        <v>516908.716474128</v>
       </c>
       <c r="O6" t="n">
         <v>516908.716474128</v>
       </c>
       <c r="P6" t="n">
-        <v>516908.7164741278</v>
+        <v>516908.716474128</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,13 +26804,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>335.0335521061647</v>
       </c>
       <c r="X2" t="n">
-        <v>308.5289555757774</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>141.6643008893685</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>88.23515329558381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>92.51216355834049</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>137.5749367610516</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>63.39020697792879</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>200.2395365567518</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>146.1005334122427</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>289.2070795747044</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>61.15672421333717</v>
+        <v>97.52731589188241</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-5.464171643889758e-13</v>
       </c>
     </row>
     <row r="21">
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189571</v>
+        <v>210.3948924365565</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32077,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32239,7 +32241,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175677</v>
@@ -32312,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>153.9723775119818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32321,16 +32323,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32555,19 +32557,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>340.7767527663067</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,19 +33265,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>399.190220890813</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709962</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>427.4314953435363</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>505.2035778706896</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>622.455381029198</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969388</v>
+        <v>68.26085851453816</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35887,7 +35889,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
         <v>735.300110790295</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>27.13475084531509</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,16 +35971,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>171.212305634483</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.7949786802852</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876629</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096403</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2527428.847911965</v>
+        <v>2523291.690661814</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>180.6261618334215</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>14.20741661124831</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>24.6422991554357</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>130.3622271220794</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>68.29163896818335</v>
       </c>
       <c r="H5" t="n">
-        <v>163.4436158013537</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>41.40638822597179</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>23.43418385167262</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>235.8298366600191</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>267.3376021249882</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>69.71950520674542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>33.28962109883611</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>113.3174219124918</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,16 +1821,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>219.4517041866526</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695533</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>53.82913822150018</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>9.146142788179368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.63824106824953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>23.10998325717174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1699.061860336089</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>715.7758545264335</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>300.0711042507223</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.012626270159</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>2085.661700400211</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>2085.661700400211</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>2085.661700400211</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300791</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>1922.533821476953</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.5879060637666</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="C4" t="n">
-        <v>775.6517231358597</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="D4" t="n">
-        <v>625.5350837235239</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E4" t="n">
-        <v>477.6219901411308</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>330.7320426432204</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
@@ -4485,55 +4485,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.028950037536</v>
+        <v>635.4023897877364</v>
       </c>
       <c r="Y4" t="n">
-        <v>1126.236370894006</v>
+        <v>635.4023897877364</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1467.671350819693</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="C5" t="n">
-        <v>1467.671350819693</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="D5" t="n">
-        <v>1109.405652212942</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="E5" t="n">
-        <v>1109.405652212942</v>
+        <v>901.6469380273675</v>
       </c>
       <c r="F5" t="n">
-        <v>698.4197474233347</v>
+        <v>490.6610332377599</v>
       </c>
       <c r="G5" t="n">
-        <v>282.7149971476235</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056584</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.810682795504</v>
+        <v>2064.174362665545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1467.671350819693</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>706.8033708781531</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="C7" t="n">
-        <v>706.8033708781531</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D7" t="n">
-        <v>556.6867314658174</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>556.6867314658174</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>409.796783967907</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>241.8103192761856</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>93.07142113969178</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,37 +4740,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1612.77522729503</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1612.77522729503</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>1358.090739089143</v>
       </c>
       <c r="W7" t="n">
-        <v>1337.23396574994</v>
+        <v>1068.673569052182</v>
       </c>
       <c r="X7" t="n">
-        <v>1109.244414851923</v>
+        <v>840.6840181541648</v>
       </c>
       <c r="Y7" t="n">
-        <v>888.4518357083929</v>
+        <v>619.8914390106347</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1081.071510755571</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="C8" t="n">
-        <v>712.1089938151592</v>
+        <v>1077.003065952737</v>
       </c>
       <c r="D8" t="n">
-        <v>712.1089938151592</v>
+        <v>718.737367345987</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>332.9491147477427</v>
       </c>
       <c r="F8" t="n">
         <v>62.91113280331017</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>121.6705292010793</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>399.7490786554491</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>252.8591311575388</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>84.87266646581736</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426267</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>570.4526592426267</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>342.4631083446094</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.6705292010793</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854707</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.792692443183</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1501.108204237296</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>545.3854261579756</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>397.4723325755825</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>397.4723325755825</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>230.2762332904625</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.5558870561822</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>388.6197041282753</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2423.619666148774</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>959.9969310299521</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>739.2043518864219</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7830,16 +7830,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
         <v>1491.508541327549</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>255.5240487471574</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>231.2582814363241</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>154.0169020165196</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>105.267231439603</v>
       </c>
     </row>
     <row r="14">
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>66.73277020259155</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>86.46557462472367</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.26526345294994</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>793677.3183128914</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467444</v>
-      </c>
-      <c r="C4" t="n">
-        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467444</v>
@@ -26435,7 +26435,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719642</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26524,46 +26524,46 @@
         <v>-704496.0479176885</v>
       </c>
       <c r="C6" t="n">
-        <v>410255.735658231</v>
+        <v>410255.7356582312</v>
       </c>
       <c r="D6" t="n">
         <v>410255.7356582311</v>
       </c>
       <c r="E6" t="n">
-        <v>9423.27484958175</v>
+        <v>9075.895595225415</v>
       </c>
       <c r="F6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197712</v>
       </c>
       <c r="G6" t="n">
-        <v>516908.7164741278</v>
+        <v>516561.3372197712</v>
       </c>
       <c r="H6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197709</v>
       </c>
       <c r="I6" t="n">
-        <v>516908.7164741281</v>
+        <v>516561.3372197709</v>
       </c>
       <c r="J6" t="n">
-        <v>349303.5386641455</v>
+        <v>348956.1594097887</v>
       </c>
       <c r="K6" t="n">
-        <v>516908.7164741279</v>
+        <v>516561.3372197708</v>
       </c>
       <c r="L6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197709</v>
       </c>
       <c r="M6" t="n">
-        <v>384301.4227452018</v>
+        <v>383954.0434908444</v>
       </c>
       <c r="N6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197709</v>
       </c>
       <c r="O6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197709</v>
       </c>
       <c r="P6" t="n">
-        <v>516908.716474128</v>
+        <v>516561.3372197711</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26798,10 +26798,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>120.3923907289839</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>335.0335521061647</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>141.6643008893685</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>95.34742826695779</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>343.2560638047706</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5749367610516</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,7 +27675,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>63.39020697792879</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>197.3145121455393</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>146.1005334122427</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>139.5384436167232</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27912,10 +27912,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>97.52731589188241</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>113.9618880562928</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-5.464171643889758e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>210.3948924365565</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33733,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>558.3177848342789</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>505.2035778706896</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>622.455381029198</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35263,16 +35263,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202787</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>270.4976243473741</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>68.26085851453816</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,10 +37323,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>426.9760727509455</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2523291.690661814</v>
+        <v>2525052.220964598</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>287.5640445160527</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>180.6261618334215</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>88.23308975464779</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>130.3622271220794</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>68.29163896818335</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>79.93068296237233</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>23.43418385167262</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>218.2275692240561</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>267.3376021249882</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>182.9377227717321</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>85.45564210299004</v>
       </c>
       <c r="H10" t="n">
-        <v>33.28962109883611</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>72.77126028643559</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.3174219124918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>103.8784673763403</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>179.2499669408062</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1126.761759316041</v>
+        <v>1466.396332783113</v>
       </c>
       <c r="C2" t="n">
-        <v>1126.761759316041</v>
+        <v>1097.433815842702</v>
       </c>
       <c r="D2" t="n">
-        <v>1126.761759316041</v>
+        <v>739.1681172359511</v>
       </c>
       <c r="E2" t="n">
-        <v>1126.761759316041</v>
+        <v>353.3798646377068</v>
       </c>
       <c r="F2" t="n">
-        <v>715.7758545264335</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>300.0711042507223</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4369,13 +4369,13 @@
         <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1126.761759316041</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,22 +4412,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495378</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2387.128251861729</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>453.7539249574967</v>
+        <v>711.8144409709064</v>
       </c>
       <c r="C4" t="n">
-        <v>453.7539249574967</v>
+        <v>542.8782580429995</v>
       </c>
       <c r="D4" t="n">
-        <v>453.7539249574967</v>
+        <v>542.8782580429995</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>394.9651644606064</v>
       </c>
       <c r="F4" t="n">
         <v>305.8408313751036</v>
@@ -4482,22 +4482,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4515,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827661</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>767.0814070827661</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>635.4023897877364</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>635.4023897877364</v>
+        <v>893.4629058011461</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625612</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C5" t="n">
-        <v>1287.435190625612</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.435190625612</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>901.6469380273675</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>490.6610332377599</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2481.601264801799</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665545</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>619.8914390106347</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C7" t="n">
-        <v>619.8914390106347</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1612.77522729503</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1612.77522729503</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1358.090739089143</v>
+        <v>1416.01423196939</v>
       </c>
       <c r="W7" t="n">
-        <v>1068.673569052182</v>
+        <v>1126.597061932429</v>
       </c>
       <c r="X7" t="n">
-        <v>840.6840181541648</v>
+        <v>898.6075110344121</v>
       </c>
       <c r="Y7" t="n">
-        <v>619.8914390106347</v>
+        <v>677.814931890882</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1445.965582893149</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C8" t="n">
-        <v>1077.003065952737</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D8" t="n">
-        <v>718.737367345987</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>332.9491147477427</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>2377.55374984285</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893149</v>
+        <v>2377.55374984285</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1715.293511287796</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2047.363946463958</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2294.546680296255</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D10" t="n">
-        <v>547.6621722378422</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E10" t="n">
-        <v>399.7490786554491</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F10" t="n">
-        <v>252.8591311575388</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G10" t="n">
-        <v>84.87266646581736</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5001,13 +5001,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5840,13 +5840,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6126,13 +6126,13 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6463,13 +6463,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="44">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>193.3273467878355</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>60.50016306149575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111053</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.9377812015499</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>154.0169020165196</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>144.6341900408527</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.267231439603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>18.49466557218918</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>41.54258064659095</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.614759755</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-704496.0479176885</v>
+        <v>-704496.0479176888</v>
       </c>
       <c r="C6" t="n">
         <v>410255.7356582312</v>
       </c>
       <c r="D6" t="n">
-        <v>410255.7356582311</v>
+        <v>410255.7356582312</v>
       </c>
       <c r="E6" t="n">
-        <v>9075.895595225415</v>
+        <v>9388.536924146785</v>
       </c>
       <c r="F6" t="n">
-        <v>516561.3372197712</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="G6" t="n">
-        <v>516561.3372197712</v>
+        <v>516873.9785486923</v>
       </c>
       <c r="H6" t="n">
-        <v>516561.3372197709</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="I6" t="n">
-        <v>516561.3372197709</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="J6" t="n">
-        <v>348956.1594097887</v>
+        <v>349268.8007387098</v>
       </c>
       <c r="K6" t="n">
-        <v>516561.3372197708</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="L6" t="n">
-        <v>516561.3372197709</v>
+        <v>516873.9785486923</v>
       </c>
       <c r="M6" t="n">
-        <v>383954.0434908444</v>
+        <v>384266.6848197659</v>
       </c>
       <c r="N6" t="n">
-        <v>516561.3372197709</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="O6" t="n">
-        <v>516561.3372197709</v>
+        <v>516873.9785486924</v>
       </c>
       <c r="P6" t="n">
-        <v>516561.3372197711</v>
+        <v>516873.9785486923</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>119.3120012256588</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>120.3923907289839</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>57.18795826828345</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>95.34742826695779</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>343.2560638047706</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>43.52153243642204</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>197.3145121455393</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>33.91007409977189</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>139.5384436167232</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27906,7 +27906,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>23.72046220850169</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="H10" t="n">
-        <v>113.9618880562928</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32487,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32961,7 +32961,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0068759113678</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>176.9808853923503</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35035,7 +35035,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419598</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>270.4976243473741</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
